--- a/demo.xlsx
+++ b/demo.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,7 +408,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>demo\ui</t>
+          <t>系统测试用例\demo\ui</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -440,7 +440,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>demo\接口\手动</t>
+          <t>系统测试用例\demo\接口\手动</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>demo\接口\自动化</t>
+          <t>系统测试用例\demo\接口\自动化</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -482,7 +482,11 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>步骤1</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
@@ -502,84 +506,64 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>demo\单元\1\2\3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>testcase4</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>步骤2</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>高</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>手工</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>WEB测试</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>demo\单元\1\2\3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>testcase5</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>高</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>步骤3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>结果-3</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>手工</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>WEB测试</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>demo\单元\=</t>
+          <t>系统测试用例\demo\单元\1\2\3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>testcase6</t>
+          <t>testcase4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>步骤1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>结果1</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>高</t>
@@ -598,32 +582,136 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>demo\单元</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>testcase7</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>步骤1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>结果2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>步骤1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>结果3</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>系统测试用例\demo\单元\1\2\3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>testcase5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>高</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>手工</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>WEB测试</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>系统测试用例\demo\单元\=</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>testcase6</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>手工</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>WEB测试</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>系统测试用例\demo\单元</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>testcase7</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>手工</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>WEB测试</t>
         </is>
